--- a/lists/fourth-group.xlsx
+++ b/lists/fourth-group.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="21">
   <si>
     <t>Име</t>
   </si>
@@ -427,7 +427,7 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="Q4" sqref="Q4:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +435,8 @@
     <col min="1" max="1" width="46.7109375"/>
     <col min="2" max="2" width="17.85546875"/>
     <col min="3" max="3" width="14"/>
-    <col min="4" max="21" width="12.5703125" customWidth="1"/>
+    <col min="4" max="15" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="16" max="21" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -562,6 +563,12 @@
       <c r="P4" t="s">
         <v>20</v>
       </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -606,6 +613,9 @@
       <c r="O5" t="s">
         <v>6</v>
       </c>
+      <c r="R5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -656,6 +666,12 @@
       <c r="P6" t="s">
         <v>6</v>
       </c>
+      <c r="Q6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -697,6 +713,9 @@
       <c r="O7" t="s">
         <v>6</v>
       </c>
+      <c r="R7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -758,6 +777,12 @@
       <c r="P9" t="s">
         <v>6</v>
       </c>
+      <c r="Q9" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -796,6 +821,12 @@
       <c r="P10" t="s">
         <v>6</v>
       </c>
+      <c r="Q10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -846,6 +877,12 @@
       <c r="P11" t="s">
         <v>6</v>
       </c>
+      <c r="Q11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -893,6 +930,12 @@
       <c r="P12" t="s">
         <v>6</v>
       </c>
+      <c r="Q12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -928,6 +971,9 @@
       <c r="L13" t="s">
         <v>6</v>
       </c>
+      <c r="R13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -992,6 +1038,12 @@
         <v>6</v>
       </c>
       <c r="P16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" t="s">
         <v>6</v>
       </c>
     </row>

--- a/lists/fourth-group.xlsx
+++ b/lists/fourth-group.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,16 +430,16 @@
       <selection activeCell="Q4" sqref="Q4:Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.7109375"/>
-    <col min="2" max="2" width="17.85546875"/>
+    <col min="1" max="1" width="46.6640625"/>
+    <col min="2" max="2" width="17.88671875"/>
     <col min="3" max="3" width="14"/>
-    <col min="4" max="15" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="16" max="21" width="12.5703125" customWidth="1"/>
+    <col min="4" max="15" width="12.5546875" hidden="1" customWidth="1"/>
+    <col min="16" max="21" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +504,7 @@
         <v>43251</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -526,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -570,7 +570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -617,7 +617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -673,7 +673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -717,7 +717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -728,7 +728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -784,7 +784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -828,7 +828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -884,7 +884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -937,7 +937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -975,7 +975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -986,7 +986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -997,7 +997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>

--- a/lists/fourth-group.xlsx
+++ b/lists/fourth-group.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="21">
   <si>
     <t>Име</t>
   </si>
@@ -427,19 +427,19 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:Q16"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.6640625"/>
-    <col min="2" max="2" width="17.88671875"/>
+    <col min="1" max="1" width="46.7109375"/>
+    <col min="2" max="2" width="17.85546875"/>
     <col min="3" max="3" width="14"/>
-    <col min="4" max="15" width="12.5546875" hidden="1" customWidth="1"/>
-    <col min="16" max="21" width="12.5546875" customWidth="1"/>
+    <col min="4" max="15" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="16" max="21" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +504,7 @@
         <v>43251</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -526,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -570,7 +570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -616,8 +616,11 @@
       <c r="R5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -672,8 +675,11 @@
       <c r="R6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -716,8 +722,11 @@
       <c r="R7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -728,7 +737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -783,8 +792,11 @@
       <c r="R9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -828,7 +840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -883,8 +895,11 @@
       <c r="R11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -937,7 +952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -975,7 +990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -986,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -997,7 +1012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1044,6 +1059,9 @@
         <v>6</v>
       </c>
       <c r="R16" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" t="s">
         <v>6</v>
       </c>
     </row>
